--- a/exercício ed-tp.xlsx
+++ b/exercício ed-tp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alunos\Desktop\TP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\ADS\fatec\2sem\TecnicaProgramacao1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0485B1D3-CFA0-4F05-9E12-FC323B390377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A96D824-2438-4438-BF61-010CAE7D6B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{592C5014-B1D9-4D64-AED0-31294970ECAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{592C5014-B1D9-4D64-AED0-31294970ECAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -78,9 +78,6 @@
     <t>8-fim laço =&gt; i+1</t>
   </si>
   <si>
-    <t>retornar vetor =&gt; fim</t>
-  </si>
-  <si>
     <t>vetor[3]</t>
   </si>
   <si>
@@ -106,6 +103,15 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>9-retornar vetor =&gt; fim</t>
+  </si>
+  <si>
+    <t>vetor</t>
+  </si>
+  <si>
+    <t>i maior que 4 =&gt; fim do laço (for)</t>
   </si>
 </sst>
 </file>
@@ -129,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -473,18 +479,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -496,55 +507,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
@@ -554,17 +528,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -585,9 +612,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -625,7 +652,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -731,7 +758,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -873,7 +900,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -881,722 +908,1061 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5CD35C-8211-47E5-9558-F1CF301E690A}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="30.453125" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="I1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="8">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>3</v>
       </c>
-      <c r="G2" s="4">
-        <v>4</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="G2" s="2">
+        <v>4</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="9">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="3">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="19" t="s">
+      <c r="I3" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="9">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="7">
         <v>3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="3">
-        <v>4</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
         <v>5</v>
       </c>
-      <c r="I4" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10">
-        <v>4</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="I4" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="8">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9">
         <v>3</v>
       </c>
-      <c r="G5" s="11">
-        <v>4</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9">
         <v>5</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="22" t="s">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="32" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="31" t="s">
+      <c r="G7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="J7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="K7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="L7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="M7" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38">
+        <v>1</v>
+      </c>
+      <c r="F8" s="39">
+        <v>-3</v>
+      </c>
+      <c r="G8" s="39">
+        <v>2</v>
+      </c>
+      <c r="H8" s="39">
+        <v>4</v>
+      </c>
+      <c r="I8" s="39">
+        <v>-5</v>
+      </c>
+      <c r="J8" s="39">
+        <v>-2</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="41">
+        <v>2</v>
+      </c>
+      <c r="F9" s="42">
+        <v>-3</v>
+      </c>
+      <c r="G9" s="42">
+        <v>2</v>
+      </c>
+      <c r="H9" s="42">
+        <v>4</v>
+      </c>
+      <c r="I9" s="42">
+        <v>-5</v>
+      </c>
+      <c r="J9" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K9" s="42">
+        <v>0</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="30">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="21">
+        <v>3</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="42">
+        <v>-3</v>
+      </c>
+      <c r="G11" s="42">
+        <v>2</v>
+      </c>
+      <c r="H11" s="42">
+        <v>4</v>
+      </c>
+      <c r="I11" s="42">
+        <v>-5</v>
+      </c>
+      <c r="J11" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K11" s="42">
+        <v>0</v>
+      </c>
+      <c r="L11" s="42">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="41">
+        <v>4</v>
+      </c>
+      <c r="F12" s="42">
+        <v>-3</v>
+      </c>
+      <c r="G12" s="42">
+        <v>2</v>
+      </c>
+      <c r="H12" s="42">
+        <v>4</v>
+      </c>
+      <c r="I12" s="42">
+        <v>-5</v>
+      </c>
+      <c r="J12" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K12" s="42">
+        <v>-3</v>
+      </c>
+      <c r="L12" s="42">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="41">
+        <v>5</v>
+      </c>
+      <c r="F13" s="42">
+        <v>-3</v>
+      </c>
+      <c r="G13" s="42">
+        <v>2</v>
+      </c>
+      <c r="H13" s="42">
+        <v>4</v>
+      </c>
+      <c r="I13" s="42">
+        <v>-5</v>
+      </c>
+      <c r="J13" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K13" s="42">
+        <v>-3</v>
+      </c>
+      <c r="L13" s="42">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="41">
+        <v>6</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="42">
+        <v>2</v>
+      </c>
+      <c r="H14" s="42">
+        <v>4</v>
+      </c>
+      <c r="I14" s="42">
+        <v>-5</v>
+      </c>
+      <c r="J14" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K14" s="42">
+        <v>-3</v>
+      </c>
+      <c r="L14" s="42">
+        <v>0</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="41">
+        <v>8</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="42">
+        <v>2</v>
+      </c>
+      <c r="H15" s="42">
+        <v>4</v>
+      </c>
+      <c r="I15" s="42">
+        <v>-5</v>
+      </c>
+      <c r="J15" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K15" s="42">
+        <v>-3</v>
+      </c>
+      <c r="L15" s="42">
         <v>1</v>
       </c>
-      <c r="F8" s="30">
+      <c r="M15" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="41">
+        <v>3</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="42">
+        <v>2</v>
+      </c>
+      <c r="H16" s="42">
+        <v>4</v>
+      </c>
+      <c r="I16" s="42">
+        <v>-5</v>
+      </c>
+      <c r="J16" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K16" s="42">
         <v>-3</v>
       </c>
-      <c r="G8" s="30">
-        <v>2</v>
-      </c>
-      <c r="H8" s="30">
-        <v>4</v>
-      </c>
-      <c r="I8" s="30">
-        <v>-5</v>
-      </c>
-      <c r="J8" s="30">
-        <v>-2</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="30">
-        <v>2</v>
-      </c>
-      <c r="F9" s="30">
-        <v>-3</v>
-      </c>
-      <c r="G9" s="30">
-        <v>2</v>
-      </c>
-      <c r="H9" s="30">
-        <v>4</v>
-      </c>
-      <c r="I9" s="30">
-        <v>-5</v>
-      </c>
-      <c r="J9" s="30">
-        <v>-2</v>
-      </c>
-      <c r="K9" s="30">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="40">
+      <c r="L16" s="42">
+        <v>1</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E17" s="41">
+        <v>4</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="42">
+        <v>2</v>
+      </c>
+      <c r="H17" s="42">
+        <v>4</v>
+      </c>
+      <c r="I17" s="42">
+        <v>-5</v>
+      </c>
+      <c r="J17" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K17" s="42">
+        <v>2</v>
+      </c>
+      <c r="L17" s="42">
+        <v>1</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E18" s="41">
+        <v>5</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="42">
+        <v>2</v>
+      </c>
+      <c r="H18" s="42">
+        <v>4</v>
+      </c>
+      <c r="I18" s="42">
+        <v>-5</v>
+      </c>
+      <c r="J18" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K18" s="42">
+        <v>2</v>
+      </c>
+      <c r="L18" s="42">
+        <v>1</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E19" s="41">
+        <v>7</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="42">
+        <v>4</v>
+      </c>
+      <c r="I19" s="42">
+        <v>-5</v>
+      </c>
+      <c r="J19" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K19" s="42">
+        <v>2</v>
+      </c>
+      <c r="L19" s="42">
+        <v>1</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E20" s="41">
+        <v>8</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="42">
+        <v>4</v>
+      </c>
+      <c r="I20" s="42">
+        <v>-5</v>
+      </c>
+      <c r="J20" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K20" s="42">
+        <v>2</v>
+      </c>
+      <c r="L20" s="42">
+        <v>2</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E21" s="41">
         <v>3</v>
       </c>
-      <c r="F10" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="30">
-        <v>-3</v>
-      </c>
-      <c r="G11" s="30">
-        <v>2</v>
-      </c>
-      <c r="H11" s="30">
-        <v>4</v>
-      </c>
-      <c r="I11" s="30">
-        <v>-5</v>
-      </c>
-      <c r="J11" s="30">
-        <v>-2</v>
-      </c>
-      <c r="K11" s="30">
-        <v>0</v>
-      </c>
-      <c r="L11" s="30">
-        <v>0</v>
-      </c>
-      <c r="M11" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="30">
-        <v>4</v>
-      </c>
-      <c r="F12" s="30">
-        <v>-3</v>
-      </c>
-      <c r="G12" s="30">
-        <v>2</v>
-      </c>
-      <c r="H12" s="30">
-        <v>4</v>
-      </c>
-      <c r="I12" s="30">
-        <v>-5</v>
-      </c>
-      <c r="J12" s="30">
-        <v>-2</v>
-      </c>
-      <c r="K12" s="30">
-        <v>-3</v>
-      </c>
-      <c r="L12" s="30">
-        <v>0</v>
-      </c>
-      <c r="M12" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="30">
+      <c r="F21" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="42">
+        <v>4</v>
+      </c>
+      <c r="I21" s="42">
+        <v>-5</v>
+      </c>
+      <c r="J21" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K21" s="42">
+        <v>2</v>
+      </c>
+      <c r="L21" s="42">
+        <v>2</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E22" s="41">
+        <v>4</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="42">
+        <v>4</v>
+      </c>
+      <c r="I22" s="42">
+        <v>-5</v>
+      </c>
+      <c r="J22" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K22" s="42">
+        <v>4</v>
+      </c>
+      <c r="L22" s="42">
+        <v>2</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E23" s="41">
         <v>5</v>
       </c>
-      <c r="F13" s="30">
-        <v>-3</v>
-      </c>
-      <c r="G13" s="30">
-        <v>2</v>
-      </c>
-      <c r="H13" s="30">
-        <v>4</v>
-      </c>
-      <c r="I13" s="30">
-        <v>-5</v>
-      </c>
-      <c r="J13" s="30">
-        <v>-2</v>
-      </c>
-      <c r="K13" s="30">
-        <v>-3</v>
-      </c>
-      <c r="L13" s="30">
-        <v>0</v>
-      </c>
-      <c r="M13" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="30">
+      <c r="F23" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="42">
+        <v>4</v>
+      </c>
+      <c r="I23" s="42">
+        <v>-5</v>
+      </c>
+      <c r="J23" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K23" s="42">
+        <v>4</v>
+      </c>
+      <c r="L23" s="42">
+        <v>2</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E24" s="41">
         <v>6</v>
       </c>
-      <c r="F14" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="30">
-        <v>2</v>
-      </c>
-      <c r="H14" s="30">
-        <v>4</v>
-      </c>
-      <c r="I14" s="30">
-        <v>-5</v>
-      </c>
-      <c r="J14" s="30">
-        <v>-2</v>
-      </c>
-      <c r="K14" s="30">
-        <v>-3</v>
-      </c>
-      <c r="L14" s="30">
-        <v>0</v>
-      </c>
-      <c r="M14" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30">
-        <v>8</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="30">
-        <v>2</v>
-      </c>
-      <c r="H15" s="30">
-        <v>4</v>
-      </c>
-      <c r="I15" s="30">
-        <v>-5</v>
-      </c>
-      <c r="J15" s="30">
-        <v>-2</v>
-      </c>
-      <c r="K15" s="30">
-        <v>-3</v>
-      </c>
-      <c r="L15" s="30">
-        <v>1</v>
-      </c>
-      <c r="M15" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E16" s="38">
+      <c r="F24" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="42">
+        <v>-5</v>
+      </c>
+      <c r="J24" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K24" s="42">
+        <v>4</v>
+      </c>
+      <c r="L24" s="42">
+        <v>2</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E25" s="41">
+        <v>8</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="42">
+        <v>-5</v>
+      </c>
+      <c r="J25" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K25" s="42">
+        <v>4</v>
+      </c>
+      <c r="L25" s="42">
         <v>3</v>
       </c>
-      <c r="F16" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="30">
-        <v>2</v>
-      </c>
-      <c r="H16" s="30">
-        <v>4</v>
-      </c>
-      <c r="I16" s="30">
-        <v>-5</v>
-      </c>
-      <c r="J16" s="30">
-        <v>-2</v>
-      </c>
-      <c r="K16" s="30">
-        <v>-3</v>
-      </c>
-      <c r="L16" s="30">
-        <v>1</v>
-      </c>
-      <c r="M16" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E17" s="30">
-        <v>4</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="30">
-        <v>2</v>
-      </c>
-      <c r="H17" s="30">
-        <v>4</v>
-      </c>
-      <c r="I17" s="30">
-        <v>-5</v>
-      </c>
-      <c r="J17" s="30">
-        <v>-2</v>
-      </c>
-      <c r="K17" s="30">
-        <v>2</v>
-      </c>
-      <c r="L17" s="30">
-        <v>1</v>
-      </c>
-      <c r="M17" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E18" s="30">
+      <c r="M25" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E26" s="41">
+        <v>3</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="42">
+        <v>-5</v>
+      </c>
+      <c r="J26" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K26" s="42">
+        <v>4</v>
+      </c>
+      <c r="L26" s="42">
+        <v>3</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E27" s="41">
+        <v>4</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="42">
+        <v>-5</v>
+      </c>
+      <c r="J27" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K27" s="42">
+        <v>-5</v>
+      </c>
+      <c r="L27" s="42">
+        <v>3</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E28" s="41">
         <v>5</v>
       </c>
-      <c r="F18" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="30">
-        <v>2</v>
-      </c>
-      <c r="H18" s="30">
-        <v>4</v>
-      </c>
-      <c r="I18" s="30">
-        <v>-5</v>
-      </c>
-      <c r="J18" s="30">
-        <v>-2</v>
-      </c>
-      <c r="K18" s="30">
-        <v>2</v>
-      </c>
-      <c r="L18" s="30">
-        <v>1</v>
-      </c>
-      <c r="M18" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E19" s="30">
-        <v>7</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="30">
-        <v>4</v>
-      </c>
-      <c r="I19" s="30">
-        <v>-5</v>
-      </c>
-      <c r="J19" s="30">
-        <v>-2</v>
-      </c>
-      <c r="K19" s="30">
-        <v>2</v>
-      </c>
-      <c r="L19" s="30">
-        <v>1</v>
-      </c>
-      <c r="M19" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E20" s="30">
-        <v>8</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="30">
-        <v>4</v>
-      </c>
-      <c r="I20" s="30">
-        <v>-5</v>
-      </c>
-      <c r="J20" s="30">
-        <v>-2</v>
-      </c>
-      <c r="K20" s="30">
-        <v>2</v>
-      </c>
-      <c r="L20" s="30">
-        <v>2</v>
-      </c>
-      <c r="M20" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E21" s="38">
+      <c r="F28" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="42">
+        <v>-5</v>
+      </c>
+      <c r="J28" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K28" s="42">
+        <v>-5</v>
+      </c>
+      <c r="L28" s="42">
         <v>3</v>
       </c>
-      <c r="F21" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="30">
-        <v>4</v>
-      </c>
-      <c r="I21" s="30">
-        <v>-5</v>
-      </c>
-      <c r="J21" s="30">
-        <v>-2</v>
-      </c>
-      <c r="K21" s="30">
-        <v>-3</v>
-      </c>
-      <c r="L21" s="30">
-        <v>2</v>
-      </c>
-      <c r="M21" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E22" s="30">
-        <v>4</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="30">
-        <v>4</v>
-      </c>
-      <c r="I22" s="30">
-        <v>-5</v>
-      </c>
-      <c r="J22" s="30">
-        <v>-2</v>
-      </c>
-      <c r="K22" s="30">
-        <v>2</v>
-      </c>
-      <c r="L22" s="30">
-        <v>2</v>
-      </c>
-      <c r="M22" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E23" s="30">
+      <c r="M28" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E29" s="41">
+        <v>6</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K29" s="42">
+        <v>-5</v>
+      </c>
+      <c r="L29" s="42">
+        <v>3</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E30" s="41">
+        <v>8</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K30" s="42">
+        <v>-5</v>
+      </c>
+      <c r="L30" s="42">
+        <v>4</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E31" s="41">
+        <v>3</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K31" s="42">
+        <v>-5</v>
+      </c>
+      <c r="L31" s="42">
+        <v>4</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E32" s="41">
+        <v>4</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K32" s="42">
+        <v>-2</v>
+      </c>
+      <c r="L32" s="42">
+        <v>4</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E33" s="41">
         <v>5</v>
       </c>
-      <c r="F23" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="30">
-        <v>4</v>
-      </c>
-      <c r="I23" s="30">
-        <v>-5</v>
-      </c>
-      <c r="J23" s="30">
-        <v>-2</v>
-      </c>
-      <c r="K23" s="30">
-        <v>2</v>
-      </c>
-      <c r="L23" s="30">
-        <v>2</v>
-      </c>
-      <c r="M23" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E24" s="30">
-        <v>7</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="30">
-        <v>4</v>
-      </c>
-      <c r="I24" s="30">
-        <v>-5</v>
-      </c>
-      <c r="J24" s="30">
-        <v>-2</v>
-      </c>
-      <c r="K24" s="30">
-        <v>2</v>
-      </c>
-      <c r="L24" s="30">
-        <v>2</v>
-      </c>
-      <c r="M24" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E25" s="30">
-        <v>8</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="30">
-        <v>4</v>
-      </c>
-      <c r="I25" s="30">
-        <v>-5</v>
-      </c>
-      <c r="J25" s="30">
-        <v>-2</v>
-      </c>
-      <c r="K25" s="30">
-        <v>2</v>
-      </c>
-      <c r="L25" s="30">
-        <v>3</v>
-      </c>
-      <c r="M25" s="37" t="s">
-        <v>8</v>
+      <c r="F33" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="42">
+        <v>-2</v>
+      </c>
+      <c r="K33" s="42">
+        <v>-2</v>
+      </c>
+      <c r="L33" s="42">
+        <v>4</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E34" s="41">
+        <v>6</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="42">
+        <v>-2</v>
+      </c>
+      <c r="L34" s="42">
+        <v>4</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E35" s="21">
+        <v>8</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="42">
+        <v>-2</v>
+      </c>
+      <c r="L35" s="42">
+        <v>5</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E36" s="21"/>
+      <c r="F36" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="23"/>
+    </row>
+    <row r="37" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="44">
+        <v>9</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="45">
+        <v>-2</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M37" s="46" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F36:M36"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A7:D7"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="E10:E11"/>
@@ -1607,11 +1973,6 @@
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1619,6 +1980,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FB8B2E6F44F66740BB4CC92DDCA2CDB2" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4ab91e62f9339f0ab30031808f14cc33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87fb97d8-459d-4361-b092-4b6618e6dbf6" xmlns:ns4="2977999d-2eb8-47e8-a019-13904cdbd2c6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3fe6d68eeac49ae1dffd5f504401a456" ns3:_="" ns4:_="">
     <xsd:import namespace="87fb97d8-459d-4361-b092-4b6618e6dbf6"/>
@@ -1833,15 +2203,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1851,6 +2212,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D295150-36AB-4B50-A28A-A1C4D9017790}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D26C4E9E-EEC8-43D9-BE12-C3182C593C99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1865,14 +2234,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D295150-36AB-4B50-A28A-A1C4D9017790}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/exercício ed-tp.xlsx
+++ b/exercício ed-tp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\ADS\fatec\2sem\TecnicaProgramacao1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A96D824-2438-4438-BF61-010CAE7D6B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37777920-D5F1-468D-BEE0-6EA7F3AB8B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{592C5014-B1D9-4D64-AED0-31294970ECAA}"/>
   </bookViews>
@@ -135,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -159,20 +159,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -190,7 +192,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -202,13 +204,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -217,14 +249,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -236,94 +270,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -490,110 +440,132 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,7 +883,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E2" sqref="E2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,59 +892,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="6">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="43">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="44">
         <v>3</v>
       </c>
-      <c r="G2" s="2">
-        <v>4</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="20" t="s">
+      <c r="G2" s="44">
+        <v>4</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="7">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="5">
         <v>2</v>
       </c>
       <c r="F3" s="1">
@@ -984,18 +956,18 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="7">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="5">
         <v>3</v>
       </c>
       <c r="F4" s="1">
@@ -1007,955 +979,956 @@
       <c r="H4" s="1">
         <v>5</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="8">
-        <v>4</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7">
         <v>3</v>
       </c>
-      <c r="G5" s="9">
-        <v>4</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="G5" s="7">
+        <v>4</v>
+      </c>
+      <c r="H5" s="7">
         <v>5</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="17" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="16" t="s">
+      <c r="G7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="19">
         <v>1</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="20">
         <v>-3</v>
       </c>
-      <c r="G8" s="39">
-        <v>2</v>
-      </c>
-      <c r="H8" s="39">
-        <v>4</v>
-      </c>
-      <c r="I8" s="39">
-        <v>-5</v>
-      </c>
-      <c r="J8" s="39">
-        <v>-2</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="40" t="s">
+      <c r="G8" s="20">
+        <v>2</v>
+      </c>
+      <c r="H8" s="20">
+        <v>4</v>
+      </c>
+      <c r="I8" s="20">
+        <v>-5</v>
+      </c>
+      <c r="J8" s="20">
+        <v>-2</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="41">
-        <v>2</v>
-      </c>
-      <c r="F9" s="42">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="22">
+        <v>2</v>
+      </c>
+      <c r="F9">
         <v>-3</v>
       </c>
-      <c r="G9" s="42">
-        <v>2</v>
-      </c>
-      <c r="H9" s="42">
-        <v>4</v>
-      </c>
-      <c r="I9" s="42">
-        <v>-5</v>
-      </c>
-      <c r="J9" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K9" s="42">
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>-5</v>
+      </c>
+      <c r="J9">
+        <v>-2</v>
+      </c>
+      <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="14" t="s">
+      <c r="L9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="21">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="26">
         <v>3</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="23"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="42">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="26"/>
+      <c r="F11">
         <v>-3</v>
       </c>
-      <c r="G11" s="42">
-        <v>2</v>
-      </c>
-      <c r="H11" s="42">
-        <v>4</v>
-      </c>
-      <c r="I11" s="42">
-        <v>-5</v>
-      </c>
-      <c r="J11" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K11" s="42">
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>-5</v>
+      </c>
+      <c r="J11">
+        <v>-2</v>
+      </c>
+      <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="41">
-        <v>4</v>
-      </c>
-      <c r="F12" s="42">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="22">
+        <v>4</v>
+      </c>
+      <c r="F12">
         <v>-3</v>
       </c>
-      <c r="G12" s="42">
-        <v>2</v>
-      </c>
-      <c r="H12" s="42">
-        <v>4</v>
-      </c>
-      <c r="I12" s="42">
-        <v>-5</v>
-      </c>
-      <c r="J12" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K12" s="42">
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>-5</v>
+      </c>
+      <c r="J12">
+        <v>-2</v>
+      </c>
+      <c r="K12">
         <v>-3</v>
       </c>
-      <c r="L12" s="42">
+      <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" s="14" t="s">
+      <c r="M12" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="41">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="22">
         <v>5</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13">
         <v>-3</v>
       </c>
-      <c r="G13" s="42">
-        <v>2</v>
-      </c>
-      <c r="H13" s="42">
-        <v>4</v>
-      </c>
-      <c r="I13" s="42">
-        <v>-5</v>
-      </c>
-      <c r="J13" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K13" s="42">
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>-5</v>
+      </c>
+      <c r="J13">
+        <v>-2</v>
+      </c>
+      <c r="K13">
         <v>-3</v>
       </c>
-      <c r="L13" s="42">
+      <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="41">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="22">
         <v>6</v>
       </c>
-      <c r="F14" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="42">
-        <v>2</v>
-      </c>
-      <c r="H14" s="42">
-        <v>4</v>
-      </c>
-      <c r="I14" s="42">
-        <v>-5</v>
-      </c>
-      <c r="J14" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K14" s="42">
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>-5</v>
+      </c>
+      <c r="J14">
+        <v>-2</v>
+      </c>
+      <c r="K14">
         <v>-3</v>
       </c>
-      <c r="L14" s="42">
+      <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="41">
-        <v>8</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="42">
-        <v>2</v>
-      </c>
-      <c r="H15" s="42">
-        <v>4</v>
-      </c>
-      <c r="I15" s="42">
-        <v>-5</v>
-      </c>
-      <c r="J15" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K15" s="42">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="22">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>-5</v>
+      </c>
+      <c r="J15">
+        <v>-2</v>
+      </c>
+      <c r="K15">
         <v>-3</v>
       </c>
-      <c r="L15" s="42">
+      <c r="L15">
         <v>1</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="41">
+      <c r="E16" s="22">
         <v>3</v>
       </c>
-      <c r="F16" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="42">
-        <v>2</v>
-      </c>
-      <c r="H16" s="42">
-        <v>4</v>
-      </c>
-      <c r="I16" s="42">
-        <v>-5</v>
-      </c>
-      <c r="J16" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K16" s="42">
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>-5</v>
+      </c>
+      <c r="J16">
+        <v>-2</v>
+      </c>
+      <c r="K16">
         <v>-3</v>
       </c>
-      <c r="L16" s="42">
+      <c r="L16">
         <v>1</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E17" s="41">
-        <v>4</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="42">
-        <v>2</v>
-      </c>
-      <c r="H17" s="42">
-        <v>4</v>
-      </c>
-      <c r="I17" s="42">
-        <v>-5</v>
-      </c>
-      <c r="J17" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K17" s="42">
-        <v>2</v>
-      </c>
-      <c r="L17" s="42">
+      <c r="E17" s="22">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>-5</v>
+      </c>
+      <c r="J17">
+        <v>-2</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
         <v>1</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M17" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E18" s="41">
+      <c r="E18" s="22">
         <v>5</v>
       </c>
-      <c r="F18" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="42">
-        <v>2</v>
-      </c>
-      <c r="H18" s="42">
-        <v>4</v>
-      </c>
-      <c r="I18" s="42">
-        <v>-5</v>
-      </c>
-      <c r="J18" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K18" s="42">
-        <v>2</v>
-      </c>
-      <c r="L18" s="42">
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>-5</v>
+      </c>
+      <c r="J18">
+        <v>-2</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
         <v>1</v>
       </c>
-      <c r="M18" s="14" t="s">
+      <c r="M18" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E19" s="41">
+      <c r="E19" s="22">
         <v>7</v>
       </c>
-      <c r="F19" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="42">
-        <v>4</v>
-      </c>
-      <c r="I19" s="42">
-        <v>-5</v>
-      </c>
-      <c r="J19" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K19" s="42">
-        <v>2</v>
-      </c>
-      <c r="L19" s="42">
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>-5</v>
+      </c>
+      <c r="J19">
+        <v>-2</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
         <v>1</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="M19" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E20" s="41">
-        <v>8</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="42">
-        <v>4</v>
-      </c>
-      <c r="I20" s="42">
-        <v>-5</v>
-      </c>
-      <c r="J20" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K20" s="42">
-        <v>2</v>
-      </c>
-      <c r="L20" s="42">
-        <v>2</v>
-      </c>
-      <c r="M20" s="14" t="s">
+      <c r="E20" s="22">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>-5</v>
+      </c>
+      <c r="J20">
+        <v>-2</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E21" s="41">
+      <c r="E21" s="22">
         <v>3</v>
       </c>
-      <c r="F21" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="42">
-        <v>4</v>
-      </c>
-      <c r="I21" s="42">
-        <v>-5</v>
-      </c>
-      <c r="J21" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K21" s="42">
-        <v>2</v>
-      </c>
-      <c r="L21" s="42">
-        <v>2</v>
-      </c>
-      <c r="M21" s="14" t="s">
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>-5</v>
+      </c>
+      <c r="J21">
+        <v>-2</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E22" s="41">
-        <v>4</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="42">
-        <v>4</v>
-      </c>
-      <c r="I22" s="42">
-        <v>-5</v>
-      </c>
-      <c r="J22" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K22" s="42">
-        <v>4</v>
-      </c>
-      <c r="L22" s="42">
-        <v>2</v>
-      </c>
-      <c r="M22" s="14" t="s">
+      <c r="E22" s="22">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>-5</v>
+      </c>
+      <c r="J22">
+        <v>-2</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E23" s="41">
+      <c r="E23" s="22">
         <v>5</v>
       </c>
-      <c r="F23" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="42">
-        <v>4</v>
-      </c>
-      <c r="I23" s="42">
-        <v>-5</v>
-      </c>
-      <c r="J23" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K23" s="42">
-        <v>4</v>
-      </c>
-      <c r="L23" s="42">
-        <v>2</v>
-      </c>
-      <c r="M23" s="14" t="s">
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>-5</v>
+      </c>
+      <c r="J23">
+        <v>-2</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E24" s="41">
+      <c r="E24" s="22">
         <v>6</v>
       </c>
-      <c r="F24" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="42">
-        <v>-5</v>
-      </c>
-      <c r="J24" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K24" s="42">
-        <v>4</v>
-      </c>
-      <c r="L24" s="42">
-        <v>2</v>
-      </c>
-      <c r="M24" s="14" t="s">
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24">
+        <v>-5</v>
+      </c>
+      <c r="J24">
+        <v>-2</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E25" s="41">
-        <v>8</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="42">
-        <v>-5</v>
-      </c>
-      <c r="J25" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K25" s="42">
-        <v>4</v>
-      </c>
-      <c r="L25" s="42">
+      <c r="E25" s="22">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25">
+        <v>-5</v>
+      </c>
+      <c r="J25">
+        <v>-2</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
         <v>3</v>
       </c>
-      <c r="M25" s="14" t="s">
+      <c r="M25" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E26" s="41">
+      <c r="E26" s="22">
         <v>3</v>
       </c>
-      <c r="F26" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="42">
-        <v>-5</v>
-      </c>
-      <c r="J26" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K26" s="42">
-        <v>4</v>
-      </c>
-      <c r="L26" s="42">
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26">
+        <v>-5</v>
+      </c>
+      <c r="J26">
+        <v>-2</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
         <v>3</v>
       </c>
-      <c r="M26" s="14" t="s">
+      <c r="M26" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E27" s="41">
-        <v>4</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27" s="42">
-        <v>-5</v>
-      </c>
-      <c r="J27" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K27" s="42">
-        <v>-5</v>
-      </c>
-      <c r="L27" s="42">
+      <c r="E27" s="22">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27">
+        <v>-5</v>
+      </c>
+      <c r="J27">
+        <v>-2</v>
+      </c>
+      <c r="K27">
+        <v>-5</v>
+      </c>
+      <c r="L27">
         <v>3</v>
       </c>
-      <c r="M27" s="14" t="s">
+      <c r="M27" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E28" s="41">
+      <c r="E28" s="22">
         <v>5</v>
       </c>
-      <c r="F28" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" s="42">
-        <v>-5</v>
-      </c>
-      <c r="J28" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K28" s="42">
-        <v>-5</v>
-      </c>
-      <c r="L28" s="42">
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28">
+        <v>-5</v>
+      </c>
+      <c r="J28">
+        <v>-2</v>
+      </c>
+      <c r="K28">
+        <v>-5</v>
+      </c>
+      <c r="L28">
         <v>3</v>
       </c>
-      <c r="M28" s="14" t="s">
+      <c r="M28" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E29" s="41">
+      <c r="E29" s="22">
         <v>6</v>
       </c>
-      <c r="F29" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K29" s="42">
-        <v>-5</v>
-      </c>
-      <c r="L29" s="42">
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29">
+        <v>-2</v>
+      </c>
+      <c r="K29">
+        <v>-5</v>
+      </c>
+      <c r="L29">
         <v>3</v>
       </c>
-      <c r="M29" s="14" t="s">
+      <c r="M29" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E30" s="41">
-        <v>8</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K30" s="42">
-        <v>-5</v>
-      </c>
-      <c r="L30" s="42">
-        <v>4</v>
-      </c>
-      <c r="M30" s="14" t="s">
+      <c r="E30" s="22">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30">
+        <v>-2</v>
+      </c>
+      <c r="K30">
+        <v>-5</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E31" s="41">
+      <c r="E31" s="22">
         <v>3</v>
       </c>
-      <c r="F31" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K31" s="42">
-        <v>-5</v>
-      </c>
-      <c r="L31" s="42">
-        <v>4</v>
-      </c>
-      <c r="M31" s="14" t="s">
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31">
+        <v>-2</v>
+      </c>
+      <c r="K31">
+        <v>-5</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E32" s="41">
-        <v>4</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K32" s="42">
-        <v>-2</v>
-      </c>
-      <c r="L32" s="42">
-        <v>4</v>
-      </c>
-      <c r="M32" s="14" t="s">
+      <c r="E32" s="22">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32">
+        <v>-2</v>
+      </c>
+      <c r="K32">
+        <v>-2</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E33" s="41">
+      <c r="E33" s="22">
         <v>5</v>
       </c>
-      <c r="F33" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="42">
-        <v>-2</v>
-      </c>
-      <c r="K33" s="42">
-        <v>-2</v>
-      </c>
-      <c r="L33" s="42">
-        <v>4</v>
-      </c>
-      <c r="M33" s="14" t="s">
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33">
+        <v>-2</v>
+      </c>
+      <c r="K33">
+        <v>-2</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E34" s="41">
+      <c r="E34" s="22">
         <v>6</v>
       </c>
-      <c r="F34" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="K34" s="42">
-        <v>-2</v>
-      </c>
-      <c r="L34" s="42">
-        <v>4</v>
-      </c>
-      <c r="M34" s="14" t="s">
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34">
+        <v>-2</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E35" s="21">
-        <v>8</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="I35" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="K35" s="42">
-        <v>-2</v>
-      </c>
-      <c r="L35" s="42">
+      <c r="E35" s="26">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35">
+        <v>-2</v>
+      </c>
+      <c r="L35">
         <v>5</v>
       </c>
-      <c r="M35" s="14" t="s">
+      <c r="M35" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E36" s="21"/>
-      <c r="F36" s="37" t="s">
+      <c r="E36" s="26"/>
+      <c r="F36" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="23"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="28"/>
     </row>
     <row r="37" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="44">
+      <c r="E37" s="23">
         <v>9</v>
       </c>
-      <c r="F37" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="I37" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="K37" s="45">
-        <v>-2</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="M37" s="46" t="s">
+      <c r="F37" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="24">
+        <v>-2</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M37" s="25" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F36:M36"/>
     <mergeCell ref="A1:D1"/>
@@ -1972,7 +1945,6 @@
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1980,15 +1952,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FB8B2E6F44F66740BB4CC92DDCA2CDB2" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4ab91e62f9339f0ab30031808f14cc33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87fb97d8-459d-4361-b092-4b6618e6dbf6" xmlns:ns4="2977999d-2eb8-47e8-a019-13904cdbd2c6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3fe6d68eeac49ae1dffd5f504401a456" ns3:_="" ns4:_="">
     <xsd:import namespace="87fb97d8-459d-4361-b092-4b6618e6dbf6"/>
@@ -2203,6 +2166,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2212,14 +2184,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D295150-36AB-4B50-A28A-A1C4D9017790}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D26C4E9E-EEC8-43D9-BE12-C3182C593C99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2234,6 +2198,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D295150-36AB-4B50-A28A-A1C4D9017790}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/exercício ed-tp.xlsx
+++ b/exercício ed-tp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\ADS\fatec\2sem\TecnicaProgramacao1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alunos\Desktop\TP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37777920-D5F1-468D-BEE0-6EA7F3AB8B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BB2964-364F-437A-9F99-76ACDB754DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{592C5014-B1D9-4D64-AED0-31294970ECAA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{592C5014-B1D9-4D64-AED0-31294970ECAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="37">
   <si>
     <t>#</t>
   </si>
@@ -96,9 +96,6 @@
     <t>4-aux=Integer.parseInt(vetor[i])</t>
   </si>
   <si>
-    <t>Inicia o aço (for)</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -112,19 +109,52 @@
   </si>
   <si>
     <t>i maior que 4 =&gt; fim do laço (for)</t>
+  </si>
+  <si>
+    <t>4-laço j=1 até 3</t>
+  </si>
+  <si>
+    <t>5-media=media+vetor[i][j]</t>
+  </si>
+  <si>
+    <t>6-fim laço =&gt; j+1</t>
+  </si>
+  <si>
+    <t>2-laço i=0 até 4</t>
+  </si>
+  <si>
+    <t>3-media=0</t>
+  </si>
+  <si>
+    <t>7-media=media/3</t>
+  </si>
+  <si>
+    <t>9-retorna o vetor =&gt; fim</t>
+  </si>
+  <si>
+    <t>1-calcularMediaAlunos()</t>
+  </si>
+  <si>
+    <t>Inicia o laço (for)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -470,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -515,57 +545,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,9 +623,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -624,7 +663,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -730,7 +769,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -872,7 +911,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -880,24 +919,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5CD35C-8211-47E5-9558-F1CF301E690A}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
@@ -914,20 +954,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="43">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="26">
         <v>1</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F2" s="27">
         <v>3</v>
       </c>
-      <c r="G2" s="44">
+      <c r="G2" s="27">
         <v>4</v>
       </c>
       <c r="H2" s="17" t="s">
@@ -937,13 +977,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="5">
         <v>2</v>
       </c>
@@ -960,13 +1000,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="42"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="5">
         <v>3</v>
       </c>
@@ -983,11 +1023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E5" s="6">
         <v>4</v>
       </c>
@@ -1004,14 +1040,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="14" t="s">
         <v>0</v>
       </c>
@@ -1040,13 +1076,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="19">
         <v>1</v>
       </c>
@@ -1075,13 +1111,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="22">
         <v>2</v>
       </c>
@@ -1110,35 +1146,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="26">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="28">
         <v>3</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="28"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="F10" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="30"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="26"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="28"/>
       <c r="F11">
         <v>-3</v>
       </c>
@@ -1164,13 +1200,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="22">
         <v>4</v>
       </c>
@@ -1199,13 +1235,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="22">
         <v>5</v>
       </c>
@@ -1234,18 +1270,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="22">
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1269,18 +1305,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="22">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1304,12 +1340,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E16" s="22">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1333,12 +1369,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E17" s="22">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1362,12 +1398,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E18" s="22">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1391,15 +1427,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E19" s="22">
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -1420,15 +1456,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E20" s="22">
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -1449,15 +1485,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E21" s="22">
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H21">
         <v>4</v>
@@ -1478,15 +1514,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E22" s="22">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H22">
         <v>4</v>
@@ -1507,15 +1543,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E23" s="22">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -1536,18 +1572,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E24" s="22">
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I24">
         <v>-5</v>
@@ -1565,18 +1601,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E25" s="22">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I25">
         <v>-5</v>
@@ -1594,18 +1630,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E26" s="22">
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I26">
         <v>-5</v>
@@ -1623,18 +1659,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E27" s="22">
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I27">
         <v>-5</v>
@@ -1652,18 +1688,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E28" s="22">
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I28">
         <v>-5</v>
@@ -1681,21 +1717,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E29" s="22">
         <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J29">
         <v>-2</v>
@@ -1710,21 +1746,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E30" s="22">
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J30">
         <v>-2</v>
@@ -1739,21 +1775,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E31" s="22">
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J31">
         <v>-2</v>
@@ -1768,21 +1804,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E32" s="22">
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J32">
         <v>-2</v>
@@ -1797,21 +1833,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E33" s="22">
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J33">
         <v>-2</v>
@@ -1826,24 +1862,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E34" s="22">
         <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K34">
         <v>-2</v>
@@ -1855,24 +1891,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E35" s="26">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E35" s="28">
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K35">
         <v>-2</v>
@@ -1884,37 +1920,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E36" s="26"/>
-      <c r="F36" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="28"/>
-    </row>
-    <row r="37" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E36" s="28"/>
+      <c r="F36" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="30"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E37" s="23">
         <v>9</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K37" s="24">
         <v>-2</v>
@@ -1923,11 +1959,95 @@
         <v>8</v>
       </c>
       <c r="M37" s="25" t="s">
-        <v>27</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="45"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="30"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="30"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="30"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="30"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="30"/>
+      <c r="H44" s="47"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="30"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="30"/>
+    </row>
+    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="26">
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F36:M36"/>
@@ -1944,7 +2064,6 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1952,6 +2071,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FB8B2E6F44F66740BB4CC92DDCA2CDB2" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4ab91e62f9339f0ab30031808f14cc33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87fb97d8-459d-4361-b092-4b6618e6dbf6" xmlns:ns4="2977999d-2eb8-47e8-a019-13904cdbd2c6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3fe6d68eeac49ae1dffd5f504401a456" ns3:_="" ns4:_="">
     <xsd:import namespace="87fb97d8-459d-4361-b092-4b6618e6dbf6"/>
@@ -2166,15 +2294,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2184,6 +2303,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D295150-36AB-4B50-A28A-A1C4D9017790}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D26C4E9E-EEC8-43D9-BE12-C3182C593C99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2198,14 +2325,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D295150-36AB-4B50-A28A-A1C4D9017790}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
